--- a/Day08/raw/kto_201901.xlsx
+++ b/Day08/raw/kto_201901.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangwook\sw_python\Play_with_Book\외국인관광객분석\data\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\bigdata-python-2023\Day08\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5C40E4-D617-4EBF-88A2-A34B41D4F57A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kto_201901" sheetId="1" r:id="rId1"/>
@@ -258,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +616,48 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -862,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,6 +926,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1204,27 +1268,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.2109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.0703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.35546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1302,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1270,7 +1334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1302,8 +1366,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4">
@@ -1334,8 +1398,8 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4">
@@ -1366,8 +1430,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4">
@@ -1398,8 +1462,8 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4">
@@ -1430,8 +1494,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4">
@@ -1462,8 +1526,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4">
@@ -1494,8 +1558,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4">
@@ -1526,8 +1590,8 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="4">
@@ -1558,8 +1622,8 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="4">
@@ -1590,8 +1654,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="4">
@@ -1622,8 +1686,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4">
@@ -1654,8 +1718,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="4">
@@ -1686,8 +1750,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="3">
@@ -1718,8 +1782,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="3">
@@ -1750,8 +1814,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3">
@@ -1782,8 +1846,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="3">
@@ -1814,8 +1878,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="4">
@@ -1846,8 +1910,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="4">
@@ -1878,8 +1942,8 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="3">
@@ -1910,8 +1974,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3">
@@ -1942,8 +2006,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="3">
@@ -1974,8 +2038,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="4">
@@ -2006,8 +2070,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="4">
@@ -2038,8 +2102,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="4">
@@ -2070,8 +2134,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="4">
@@ -2102,7 +2166,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2198,8 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="4">
@@ -2166,8 +2230,8 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="4">
@@ -2198,8 +2262,8 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="4">
@@ -2230,8 +2294,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="4">
@@ -2262,8 +2326,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="4">
@@ -2294,7 +2358,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2326,8 +2390,8 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="4">
@@ -2358,8 +2422,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="4">
@@ -2390,8 +2454,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="4">
@@ -2422,8 +2486,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="4">
@@ -2454,8 +2518,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="3">
@@ -2486,8 +2550,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="3">
@@ -2518,8 +2582,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="4">
@@ -2550,8 +2614,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="3">
@@ -2582,8 +2646,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="3">
@@ -2614,8 +2678,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="3">
@@ -2646,8 +2710,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="3">
@@ -2678,8 +2742,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="4">
@@ -2710,8 +2774,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="3">
@@ -2742,8 +2806,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="3">
@@ -2774,8 +2838,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="3">
@@ -2806,8 +2870,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="3">
@@ -2838,8 +2902,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="3">
@@ -2870,8 +2934,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B53" s="4">
@@ -2902,8 +2966,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="3">
@@ -2934,8 +2998,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="3">
@@ -2966,8 +3030,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="3">
@@ -2998,8 +3062,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="3">
@@ -3030,8 +3094,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="4">
@@ -3062,7 +3126,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>67</v>
       </c>
@@ -3094,8 +3158,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="4">
@@ -3126,8 +3190,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B61" s="4">
@@ -3158,8 +3222,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B62" s="3">
@@ -3190,7 +3254,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>71</v>
       </c>
@@ -3222,8 +3286,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B64" s="3">
@@ -3254,8 +3318,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="3">
@@ -3286,7 +3350,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>74</v>
       </c>
@@ -3318,8 +3382,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B67" s="3">
@@ -3350,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>76</v>
       </c>
@@ -3382,8 +3446,8 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B69" s="3">
@@ -3414,7 +3478,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3504,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -3466,7 +3530,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
@@ -3492,7 +3556,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
